--- a/Index_invulinstructies/data/invulinstructies_formatted.xlsx
+++ b/Index_invulinstructies/data/invulinstructies_formatted.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_5D89B2AAD370D206CB993411595ED87656CDFD66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1DAC3F1-E3A5-49F6-8E8A-B2656C57DE3D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1187,13 +1187,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>140</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>154</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>166</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>172</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>175</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>178</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>181</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>184</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>187</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>194</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>197</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>200</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>207</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>209</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>215</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>221</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>224</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>227</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>230</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>233</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>236</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>239</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>244</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>247</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>250</v>
       </c>
